--- a/tests/Gauges/Subranges_Simple_tMD1.xlsx
+++ b/tests/Gauges/Subranges_Simple_tMD1.xlsx
@@ -11,8 +11,8 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Customers">'Sheet 1'!$A$4:$I$1468</x:definedName>
-    <x:definedName name="Customers_Orders">'__temp_buffer'!$A$1443:$I$1465</x:definedName>
-    <x:definedName name="Customers_Orders_Items">'__temp_buffer'!$A$1459:$I$1465</x:definedName>
+    <x:definedName name="Customers_Orders">__temp_buffer!$A$1443:$I$1465</x:definedName>
+    <x:definedName name="Customers_Orders_Items">__temp_buffer!$A$1459:$I$1465</x:definedName>
     <x:definedName name="Customers_tpl">'Sheet 1'!$A$4:$I$11</x:definedName>
     <x:definedName name="Customers_Orders_tpl">'Sheet 1'!$A$6:$I$10</x:definedName>
     <x:definedName name="Customers_Orders_Items_tpl">'Sheet 1'!$A$8:$I$9</x:definedName>
@@ -1391,31 +1391,13 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="3">
+  <x:dxfs count="1">
     <x:dxf>
       <x:fill>
         <x:patternFill>
           <x:bgColor rgb="FFF7F4BF"/>
         </x:patternFill>
       </x:fill>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:bgColor rgb="FFF7F4BF"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:bgColor rgb="FFF7F4BF"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1496,45 +1478,38 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>638702</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1895475" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4" descr="logo.png"/>
+        <xdr:cNvPr id="1" name="Рисунок 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781425" y="28575"/>
-          <a:ext cx="1895476" cy="610127"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1895475" cy="609600"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34602,1028 +34577,1033 @@
     <x:mergeCell ref="D1445:E1445"/>
   </x:mergeCells>
   <x:phoneticPr fontId="0" type="noConversion"/>
+  <x:conditionalFormatting sqref="J8:I8">
+    <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
+      <x:formula>$H8&lt;&gt;0</x:formula>
+    </x:cfRule>
+  </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D8:I10">
-    <x:cfRule type="expression" dxfId="2" priority="1" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="2" operator="equal">
       <x:formula>$H8&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D13:I15">
-    <x:cfRule type="expression" dxfId="2" priority="2" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="3" operator="equal">
       <x:formula>$H13&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D18:I23">
-    <x:cfRule type="expression" dxfId="2" priority="3" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="4" operator="equal">
       <x:formula>$H18&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D26:I33">
-    <x:cfRule type="expression" dxfId="2" priority="4" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="5" operator="equal">
       <x:formula>$H26&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D36:I39">
-    <x:cfRule type="expression" dxfId="2" priority="5" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="6" operator="equal">
       <x:formula>$H36&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D42:I42">
-    <x:cfRule type="expression" dxfId="2" priority="6" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="7" operator="equal">
       <x:formula>$H42&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D47:I50">
-    <x:cfRule type="expression" dxfId="2" priority="7" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="8" operator="equal">
       <x:formula>$H47&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D53:I54">
-    <x:cfRule type="expression" dxfId="2" priority="8" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="9" operator="equal">
       <x:formula>$H53&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D57:I60">
-    <x:cfRule type="expression" dxfId="2" priority="9" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="10" operator="equal">
       <x:formula>$H57&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D63:I68">
-    <x:cfRule type="expression" dxfId="2" priority="10" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="11" operator="equal">
       <x:formula>$H63&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D71:I71">
-    <x:cfRule type="expression" dxfId="2" priority="11" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="12" operator="equal">
       <x:formula>$H71&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D74:I79">
-    <x:cfRule type="expression" dxfId="2" priority="12" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="13" operator="equal">
       <x:formula>$H74&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D82:I84">
-    <x:cfRule type="expression" dxfId="2" priority="13" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="14" operator="equal">
       <x:formula>$H82&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D87:I91">
-    <x:cfRule type="expression" dxfId="2" priority="14" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="15" operator="equal">
       <x:formula>$H87&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D94:I100">
-    <x:cfRule type="expression" dxfId="2" priority="15" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="16" operator="equal">
       <x:formula>$H94&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D105:I105">
-    <x:cfRule type="expression" dxfId="2" priority="16" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="17" operator="equal">
       <x:formula>$H105&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D108:I109">
-    <x:cfRule type="expression" dxfId="2" priority="17" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="18" operator="equal">
       <x:formula>$H108&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D112:I115">
-    <x:cfRule type="expression" dxfId="2" priority="18" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="19" operator="equal">
       <x:formula>$H112&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D118:I118">
-    <x:cfRule type="expression" dxfId="2" priority="19" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="20" operator="equal">
       <x:formula>$H118&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D121:I123">
-    <x:cfRule type="expression" dxfId="2" priority="20" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="21" operator="equal">
       <x:formula>$H121&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D126:I127">
-    <x:cfRule type="expression" dxfId="2" priority="21" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="22" operator="equal">
       <x:formula>$H126&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D130:I160">
-    <x:cfRule type="expression" dxfId="2" priority="22" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="23" operator="equal">
       <x:formula>$H130&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D163:I170">
-    <x:cfRule type="expression" dxfId="2" priority="23" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="24" operator="equal">
       <x:formula>$H163&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D173:I173">
-    <x:cfRule type="expression" dxfId="2" priority="24" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="25" operator="equal">
       <x:formula>$H173&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D176:I183">
-    <x:cfRule type="expression" dxfId="2" priority="25" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="26" operator="equal">
       <x:formula>$H176&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D186:I199">
-    <x:cfRule type="expression" dxfId="2" priority="26" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="27" operator="equal">
       <x:formula>$H186&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D204:I238">
-    <x:cfRule type="expression" dxfId="2" priority="27" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="28" operator="equal">
       <x:formula>$H204&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D241:I249">
-    <x:cfRule type="expression" dxfId="2" priority="28" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="29" operator="equal">
       <x:formula>$H241&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D254:I258">
-    <x:cfRule type="expression" dxfId="2" priority="29" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="30" operator="equal">
       <x:formula>$H254&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D261:I261">
-    <x:cfRule type="expression" dxfId="2" priority="30" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="31" operator="equal">
       <x:formula>$H261&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D264:I264">
-    <x:cfRule type="expression" dxfId="2" priority="31" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="32" operator="equal">
       <x:formula>$H264&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D267:I269">
-    <x:cfRule type="expression" dxfId="2" priority="32" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="33" operator="equal">
       <x:formula>$H267&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D272:I277">
-    <x:cfRule type="expression" dxfId="2" priority="33" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="34" operator="equal">
       <x:formula>$H272&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D280:I281">
-    <x:cfRule type="expression" dxfId="2" priority="34" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="35" operator="equal">
       <x:formula>$H280&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D284:I284">
-    <x:cfRule type="expression" dxfId="2" priority="35" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="36" operator="equal">
       <x:formula>$H284&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D287:I290">
-    <x:cfRule type="expression" dxfId="2" priority="36" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="37" operator="equal">
       <x:formula>$H287&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D293:I295">
-    <x:cfRule type="expression" dxfId="2" priority="37" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="38" operator="equal">
       <x:formula>$H293&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D300:I304">
-    <x:cfRule type="expression" dxfId="2" priority="38" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="39" operator="equal">
       <x:formula>$H300&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D307:I308">
-    <x:cfRule type="expression" dxfId="2" priority="39" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="40" operator="equal">
       <x:formula>$H307&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D311:I316">
-    <x:cfRule type="expression" dxfId="2" priority="40" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="41" operator="equal">
       <x:formula>$H311&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D319:I321">
-    <x:cfRule type="expression" dxfId="2" priority="41" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="42" operator="equal">
       <x:formula>$H319&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D324:I326">
-    <x:cfRule type="expression" dxfId="2" priority="42" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="43" operator="equal">
       <x:formula>$H324&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D331:I332">
-    <x:cfRule type="expression" dxfId="2" priority="43" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="44" operator="equal">
       <x:formula>$H331&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D335:I336">
-    <x:cfRule type="expression" dxfId="2" priority="44" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="45" operator="equal">
       <x:formula>$H335&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D339:I340">
-    <x:cfRule type="expression" dxfId="2" priority="45" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="46" operator="equal">
       <x:formula>$H339&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D343:I345">
-    <x:cfRule type="expression" dxfId="2" priority="46" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="47" operator="equal">
       <x:formula>$H343&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D348:I356">
-    <x:cfRule type="expression" dxfId="2" priority="47" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="48" operator="equal">
       <x:formula>$H348&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D359:I366">
-    <x:cfRule type="expression" dxfId="2" priority="48" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="49" operator="equal">
       <x:formula>$H359&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D369:I373">
-    <x:cfRule type="expression" dxfId="2" priority="49" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="50" operator="equal">
       <x:formula>$H369&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D376:I377">
-    <x:cfRule type="expression" dxfId="2" priority="50" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="51" operator="equal">
       <x:formula>$H376&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D380:I384">
-    <x:cfRule type="expression" dxfId="2" priority="51" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="52" operator="equal">
       <x:formula>$H380&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D387:I393">
-    <x:cfRule type="expression" dxfId="2" priority="52" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="53" operator="equal">
       <x:formula>$H387&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D398:I399">
-    <x:cfRule type="expression" dxfId="2" priority="53" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="54" operator="equal">
       <x:formula>$H398&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D402:I403">
-    <x:cfRule type="expression" dxfId="2" priority="54" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="55" operator="equal">
       <x:formula>$H402&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D406:I412">
-    <x:cfRule type="expression" dxfId="2" priority="55" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="56" operator="equal">
       <x:formula>$H406&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D415:I422">
-    <x:cfRule type="expression" dxfId="2" priority="56" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="57" operator="equal">
       <x:formula>$H415&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D427:I430">
-    <x:cfRule type="expression" dxfId="2" priority="57" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="58" operator="equal">
       <x:formula>$H427&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D433:I434">
-    <x:cfRule type="expression" dxfId="2" priority="58" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="59" operator="equal">
       <x:formula>$H433&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D437:I438">
-    <x:cfRule type="expression" dxfId="2" priority="59" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="60" operator="equal">
       <x:formula>$H437&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D441:I442">
-    <x:cfRule type="expression" dxfId="2" priority="60" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="61" operator="equal">
       <x:formula>$H441&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D445:I446">
-    <x:cfRule type="expression" dxfId="2" priority="61" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="62" operator="equal">
       <x:formula>$H445&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D449:I454">
-    <x:cfRule type="expression" dxfId="2" priority="62" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="63" operator="equal">
       <x:formula>$H449&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D457:I462">
-    <x:cfRule type="expression" dxfId="2" priority="63" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="64" operator="equal">
       <x:formula>$H457&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D465:I469">
-    <x:cfRule type="expression" dxfId="2" priority="64" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="65" operator="equal">
       <x:formula>$H465&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D472:I477">
-    <x:cfRule type="expression" dxfId="2" priority="65" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="66" operator="equal">
       <x:formula>$H472&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D482:I482">
-    <x:cfRule type="expression" dxfId="2" priority="66" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="67" operator="equal">
       <x:formula>$H482&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D485:I485">
-    <x:cfRule type="expression" dxfId="2" priority="67" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="68" operator="equal">
       <x:formula>$H485&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D488:I488">
-    <x:cfRule type="expression" dxfId="2" priority="68" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="69" operator="equal">
       <x:formula>$H488&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D491:I495">
-    <x:cfRule type="expression" dxfId="2" priority="69" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="70" operator="equal">
       <x:formula>$H491&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D500:I501">
-    <x:cfRule type="expression" dxfId="2" priority="70" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="71" operator="equal">
       <x:formula>$H500&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D504:I504">
-    <x:cfRule type="expression" dxfId="2" priority="71" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="72" operator="equal">
       <x:formula>$H504&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D507:I509">
-    <x:cfRule type="expression" dxfId="2" priority="72" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="73" operator="equal">
       <x:formula>$H507&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D512:I518">
-    <x:cfRule type="expression" dxfId="2" priority="73" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="74" operator="equal">
       <x:formula>$H512&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D521:I527">
-    <x:cfRule type="expression" dxfId="2" priority="74" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="75" operator="equal">
       <x:formula>$H521&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D530:I534">
-    <x:cfRule type="expression" dxfId="2" priority="75" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="76" operator="equal">
       <x:formula>$H530&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D537:I538">
-    <x:cfRule type="expression" dxfId="2" priority="76" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="77" operator="equal">
       <x:formula>$H537&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D543:I545">
-    <x:cfRule type="expression" dxfId="2" priority="77" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="78" operator="equal">
       <x:formula>$H543&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D548:I548">
-    <x:cfRule type="expression" dxfId="2" priority="78" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="79" operator="equal">
       <x:formula>$H548&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D551:I553">
-    <x:cfRule type="expression" dxfId="2" priority="79" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="80" operator="equal">
       <x:formula>$H551&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D556:I559">
-    <x:cfRule type="expression" dxfId="2" priority="80" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="81" operator="equal">
       <x:formula>$H556&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D562:I562">
-    <x:cfRule type="expression" dxfId="2" priority="81" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="82" operator="equal">
       <x:formula>$H562&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D565:I570">
-    <x:cfRule type="expression" dxfId="2" priority="82" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="83" operator="equal">
       <x:formula>$H565&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D573:I600">
-    <x:cfRule type="expression" dxfId="2" priority="83" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="84" operator="equal">
       <x:formula>$H573&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D603:I603">
-    <x:cfRule type="expression" dxfId="2" priority="84" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="85" operator="equal">
       <x:formula>$H603&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D606:I610">
-    <x:cfRule type="expression" dxfId="2" priority="85" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="86" operator="equal">
       <x:formula>$H606&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D613:I613">
-    <x:cfRule type="expression" dxfId="2" priority="86" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="87" operator="equal">
       <x:formula>$H613&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D616:I621">
-    <x:cfRule type="expression" dxfId="2" priority="87" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="88" operator="equal">
       <x:formula>$H616&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D626:I627">
-    <x:cfRule type="expression" dxfId="2" priority="88" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="89" operator="equal">
       <x:formula>$H626&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D630:I631">
-    <x:cfRule type="expression" dxfId="2" priority="89" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="90" operator="equal">
       <x:formula>$H630&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D634:I639">
-    <x:cfRule type="expression" dxfId="2" priority="90" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="91" operator="equal">
       <x:formula>$H634&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D642:I643">
-    <x:cfRule type="expression" dxfId="2" priority="91" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="92" operator="equal">
       <x:formula>$H642&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D648:I648">
-    <x:cfRule type="expression" dxfId="2" priority="92" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="93" operator="equal">
       <x:formula>$H648&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D651:I652">
-    <x:cfRule type="expression" dxfId="2" priority="93" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="94" operator="equal">
       <x:formula>$H651&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D655:I655">
-    <x:cfRule type="expression" dxfId="2" priority="94" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="95" operator="equal">
       <x:formula>$H655&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D658:I659">
-    <x:cfRule type="expression" dxfId="2" priority="95" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="96" operator="equal">
       <x:formula>$H658&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D664:I667">
-    <x:cfRule type="expression" dxfId="2" priority="96" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="97" operator="equal">
       <x:formula>$H664&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D670:I671">
-    <x:cfRule type="expression" dxfId="2" priority="97" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="98" operator="equal">
       <x:formula>$H670&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D674:I680">
-    <x:cfRule type="expression" dxfId="2" priority="98" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="99" operator="equal">
       <x:formula>$H674&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D683:I689">
-    <x:cfRule type="expression" dxfId="2" priority="99" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="100" operator="equal">
       <x:formula>$H683&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D692:I698">
-    <x:cfRule type="expression" dxfId="2" priority="100" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="101" operator="equal">
       <x:formula>$H692&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D703:I704">
-    <x:cfRule type="expression" dxfId="2" priority="101" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="102" operator="equal">
       <x:formula>$H703&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D707:I708">
-    <x:cfRule type="expression" dxfId="2" priority="102" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="103" operator="equal">
       <x:formula>$H707&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D711:I711">
-    <x:cfRule type="expression" dxfId="2" priority="103" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="104" operator="equal">
       <x:formula>$H711&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D714:I714">
-    <x:cfRule type="expression" dxfId="2" priority="104" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="105" operator="equal">
       <x:formula>$H714&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D717:I724">
-    <x:cfRule type="expression" dxfId="2" priority="105" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="106" operator="equal">
       <x:formula>$H717&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D729:I732">
-    <x:cfRule type="expression" dxfId="2" priority="106" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="107" operator="equal">
       <x:formula>$H729&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D735:I736">
-    <x:cfRule type="expression" dxfId="2" priority="107" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="108" operator="equal">
       <x:formula>$H735&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D739:I739">
-    <x:cfRule type="expression" dxfId="2" priority="108" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="109" operator="equal">
       <x:formula>$H739&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D742:I743">
-    <x:cfRule type="expression" dxfId="2" priority="109" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="110" operator="equal">
       <x:formula>$H742&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D746:I749">
-    <x:cfRule type="expression" dxfId="2" priority="110" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="111" operator="equal">
       <x:formula>$H746&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D752:I756">
-    <x:cfRule type="expression" dxfId="2" priority="111" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="112" operator="equal">
       <x:formula>$H752&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D759:I764">
-    <x:cfRule type="expression" dxfId="2" priority="112" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="113" operator="equal">
       <x:formula>$H759&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D767:I772">
-    <x:cfRule type="expression" dxfId="2" priority="113" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="114" operator="equal">
       <x:formula>$H767&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D775:I778">
-    <x:cfRule type="expression" dxfId="2" priority="114" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="115" operator="equal">
       <x:formula>$H775&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D783:I784">
-    <x:cfRule type="expression" dxfId="2" priority="115" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="116" operator="equal">
       <x:formula>$H783&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D787:I788">
-    <x:cfRule type="expression" dxfId="2" priority="116" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="117" operator="equal">
       <x:formula>$H787&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D791:I792">
-    <x:cfRule type="expression" dxfId="2" priority="117" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="118" operator="equal">
       <x:formula>$H791&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D795:I796">
-    <x:cfRule type="expression" dxfId="2" priority="118" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="119" operator="equal">
       <x:formula>$H795&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D799:I799">
-    <x:cfRule type="expression" dxfId="2" priority="119" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="120" operator="equal">
       <x:formula>$H799&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D802:I808">
-    <x:cfRule type="expression" dxfId="2" priority="120" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="121" operator="equal">
       <x:formula>$H802&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D811:I818">
-    <x:cfRule type="expression" dxfId="2" priority="121" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="122" operator="equal">
       <x:formula>$H811&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D821:I825">
-    <x:cfRule type="expression" dxfId="2" priority="122" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="123" operator="equal">
       <x:formula>$H821&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D830:I831">
-    <x:cfRule type="expression" dxfId="2" priority="123" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="124" operator="equal">
       <x:formula>$H830&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D836:I839">
-    <x:cfRule type="expression" dxfId="2" priority="124" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="125" operator="equal">
       <x:formula>$H836&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D842:I843">
-    <x:cfRule type="expression" dxfId="2" priority="125" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="126" operator="equal">
       <x:formula>$H842&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D846:I848">
-    <x:cfRule type="expression" dxfId="2" priority="126" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="127" operator="equal">
       <x:formula>$H846&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D851:I853">
-    <x:cfRule type="expression" dxfId="2" priority="127" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="128" operator="equal">
       <x:formula>$H851&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D856:I861">
-    <x:cfRule type="expression" dxfId="2" priority="128" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="129" operator="equal">
       <x:formula>$H856&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D866:I868">
-    <x:cfRule type="expression" dxfId="2" priority="129" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="130" operator="equal">
       <x:formula>$H866&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D871:I872">
-    <x:cfRule type="expression" dxfId="2" priority="130" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="131" operator="equal">
       <x:formula>$H871&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D875:I876">
-    <x:cfRule type="expression" dxfId="2" priority="131" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="132" operator="equal">
       <x:formula>$H875&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D879:I880">
-    <x:cfRule type="expression" dxfId="2" priority="132" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="133" operator="equal">
       <x:formula>$H879&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D883:I887">
-    <x:cfRule type="expression" dxfId="2" priority="133" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="134" operator="equal">
       <x:formula>$H883&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D890:I891">
-    <x:cfRule type="expression" dxfId="2" priority="134" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="135" operator="equal">
       <x:formula>$H890&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D894:I901">
-    <x:cfRule type="expression" dxfId="2" priority="135" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="136" operator="equal">
       <x:formula>$H894&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D904:I905">
-    <x:cfRule type="expression" dxfId="2" priority="136" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="137" operator="equal">
       <x:formula>$H904&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D910:I910">
-    <x:cfRule type="expression" dxfId="2" priority="137" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="138" operator="equal">
       <x:formula>$H910&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D913:I920">
-    <x:cfRule type="expression" dxfId="2" priority="138" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="139" operator="equal">
       <x:formula>$H913&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D925:I926">
-    <x:cfRule type="expression" dxfId="2" priority="139" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="140" operator="equal">
       <x:formula>$H925&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D929:I931">
-    <x:cfRule type="expression" dxfId="2" priority="140" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="141" operator="equal">
       <x:formula>$H929&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D934:I939">
-    <x:cfRule type="expression" dxfId="2" priority="141" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="142" operator="equal">
       <x:formula>$H934&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D942:I964">
-    <x:cfRule type="expression" dxfId="2" priority="142" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="143" operator="equal">
       <x:formula>$H942&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D967:I967">
-    <x:cfRule type="expression" dxfId="2" priority="143" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="144" operator="equal">
       <x:formula>$H967&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D972:I975">
-    <x:cfRule type="expression" dxfId="2" priority="144" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="145" operator="equal">
       <x:formula>$H972&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D978:I981">
-    <x:cfRule type="expression" dxfId="2" priority="145" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="146" operator="equal">
       <x:formula>$H978&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D986:I992">
-    <x:cfRule type="expression" dxfId="2" priority="146" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="147" operator="equal">
       <x:formula>$H986&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D997:I999">
-    <x:cfRule type="expression" dxfId="2" priority="147" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="148" operator="equal">
       <x:formula>$H997&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1004:I1007">
-    <x:cfRule type="expression" dxfId="2" priority="148" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="149" operator="equal">
       <x:formula>$H1004&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1010:I1014">
-    <x:cfRule type="expression" dxfId="2" priority="149" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="150" operator="equal">
       <x:formula>$H1010&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1019:I1022">
-    <x:cfRule type="expression" dxfId="2" priority="150" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="151" operator="equal">
       <x:formula>$H1019&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1025:I1025">
-    <x:cfRule type="expression" dxfId="2" priority="151" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="152" operator="equal">
       <x:formula>$H1025&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1028:I1048">
-    <x:cfRule type="expression" dxfId="2" priority="152" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="153" operator="equal">
       <x:formula>$H1028&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1053:I1058">
-    <x:cfRule type="expression" dxfId="2" priority="153" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="154" operator="equal">
       <x:formula>$H1053&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1063:I1066">
-    <x:cfRule type="expression" dxfId="2" priority="154" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="155" operator="equal">
       <x:formula>$H1063&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1069:I1076">
-    <x:cfRule type="expression" dxfId="2" priority="155" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="156" operator="equal">
       <x:formula>$H1069&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1079:I1110">
-    <x:cfRule type="expression" dxfId="2" priority="156" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="157" operator="equal">
       <x:formula>$H1079&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1113:I1120">
-    <x:cfRule type="expression" dxfId="2" priority="157" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="158" operator="equal">
       <x:formula>$H1113&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1125:I1131">
-    <x:cfRule type="expression" dxfId="2" priority="158" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="159" operator="equal">
       <x:formula>$H1125&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1134:I1169">
-    <x:cfRule type="expression" dxfId="2" priority="159" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="160" operator="equal">
       <x:formula>$H1134&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1172:I1177">
-    <x:cfRule type="expression" dxfId="2" priority="160" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="161" operator="equal">
       <x:formula>$H1172&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1182:I1185">
-    <x:cfRule type="expression" dxfId="2" priority="161" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="162" operator="equal">
       <x:formula>$H1182&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1188:I1196">
-    <x:cfRule type="expression" dxfId="2" priority="162" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="163" operator="equal">
       <x:formula>$H1188&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1199:I1206">
-    <x:cfRule type="expression" dxfId="2" priority="163" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="164" operator="equal">
       <x:formula>$H1199&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1213:I1214">
-    <x:cfRule type="expression" dxfId="2" priority="164" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="165" operator="equal">
       <x:formula>$H1213&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1217:I1218">
-    <x:cfRule type="expression" dxfId="2" priority="165" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="166" operator="equal">
       <x:formula>$H1217&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1221:I1225">
-    <x:cfRule type="expression" dxfId="2" priority="166" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="167" operator="equal">
       <x:formula>$H1221&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1230:I1231">
-    <x:cfRule type="expression" dxfId="2" priority="167" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="168" operator="equal">
       <x:formula>$H1230&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1236:I1237">
-    <x:cfRule type="expression" dxfId="2" priority="168" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="169" operator="equal">
       <x:formula>$H1236&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1240:I1241">
-    <x:cfRule type="expression" dxfId="2" priority="169" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="170" operator="equal">
       <x:formula>$H1240&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1244:I1245">
-    <x:cfRule type="expression" dxfId="2" priority="170" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="171" operator="equal">
       <x:formula>$H1244&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1248:I1248">
-    <x:cfRule type="expression" dxfId="2" priority="171" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="172" operator="equal">
       <x:formula>$H1248&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1253:I1254">
-    <x:cfRule type="expression" dxfId="2" priority="172" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="173" operator="equal">
       <x:formula>$H1253&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1257:I1260">
-    <x:cfRule type="expression" dxfId="2" priority="173" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="174" operator="equal">
       <x:formula>$H1257&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1265:I1265">
-    <x:cfRule type="expression" dxfId="2" priority="174" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="175" operator="equal">
       <x:formula>$H1265&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1270:I1271">
-    <x:cfRule type="expression" dxfId="2" priority="175" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="176" operator="equal">
       <x:formula>$H1270&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1274:I1277">
-    <x:cfRule type="expression" dxfId="2" priority="176" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="177" operator="equal">
       <x:formula>$H1274&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1280:I1284">
-    <x:cfRule type="expression" dxfId="2" priority="177" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="178" operator="equal">
       <x:formula>$H1280&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1289:I1290">
-    <x:cfRule type="expression" dxfId="2" priority="178" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="179" operator="equal">
       <x:formula>$H1289&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1293:I1296">
-    <x:cfRule type="expression" dxfId="2" priority="179" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="180" operator="equal">
       <x:formula>$H1293&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1301:I1303">
-    <x:cfRule type="expression" dxfId="2" priority="180" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="181" operator="equal">
       <x:formula>$H1301&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1308:I1309">
-    <x:cfRule type="expression" dxfId="2" priority="181" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="182" operator="equal">
       <x:formula>$H1308&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1312:I1313">
-    <x:cfRule type="expression" dxfId="2" priority="182" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="183" operator="equal">
       <x:formula>$H1312&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1318:I1323">
-    <x:cfRule type="expression" dxfId="2" priority="183" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="184" operator="equal">
       <x:formula>$H1318&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1328:I1332">
-    <x:cfRule type="expression" dxfId="2" priority="184" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="185" operator="equal">
       <x:formula>$H1328&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1335:I1335">
-    <x:cfRule type="expression" dxfId="2" priority="185" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="186" operator="equal">
       <x:formula>$H1335&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1340:I1347">
-    <x:cfRule type="expression" dxfId="2" priority="186" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="187" operator="equal">
       <x:formula>$H1340&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1352:I1353">
-    <x:cfRule type="expression" dxfId="2" priority="187" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="188" operator="equal">
       <x:formula>$H1352&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1356:I1359">
-    <x:cfRule type="expression" dxfId="2" priority="188" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="189" operator="equal">
       <x:formula>$H1356&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1362:I1365">
-    <x:cfRule type="expression" dxfId="2" priority="189" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="190" operator="equal">
       <x:formula>$H1362&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1370:I1377">
-    <x:cfRule type="expression" dxfId="2" priority="190" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="191" operator="equal">
       <x:formula>$H1370&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1382:I1383">
-    <x:cfRule type="expression" dxfId="2" priority="191" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="192" operator="equal">
       <x:formula>$H1382&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1386:I1387">
-    <x:cfRule type="expression" dxfId="2" priority="192" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="193" operator="equal">
       <x:formula>$H1386&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1392:I1393">
-    <x:cfRule type="expression" dxfId="2" priority="193" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="194" operator="equal">
       <x:formula>$H1392&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1396:I1396">
-    <x:cfRule type="expression" dxfId="2" priority="194" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="195" operator="equal">
       <x:formula>$H1396&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1399:I1405">
-    <x:cfRule type="expression" dxfId="2" priority="195" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="196" operator="equal">
       <x:formula>$H1399&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1410:I1411">
-    <x:cfRule type="expression" dxfId="2" priority="196" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="197" operator="equal">
       <x:formula>$H1410&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1416:I1417">
-    <x:cfRule type="expression" dxfId="2" priority="197" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="198" operator="equal">
       <x:formula>$H1416&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1422:I1424">
-    <x:cfRule type="expression" dxfId="2" priority="198" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="199" operator="equal">
       <x:formula>$H1422&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1429:I1432">
-    <x:cfRule type="expression" dxfId="2" priority="199" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="200" operator="equal">
       <x:formula>$H1429&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1437:I1438">
-    <x:cfRule type="expression" dxfId="2" priority="200" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="201" operator="equal">
       <x:formula>$H1437&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1441:I1443">
-    <x:cfRule type="expression" dxfId="2" priority="201" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="202" operator="equal">
       <x:formula>$H1441&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1448:I1449">
-    <x:cfRule type="expression" dxfId="2" priority="202" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="203" operator="equal">
       <x:formula>$H1448&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1452:I1453">
-    <x:cfRule type="expression" dxfId="2" priority="203" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="204" operator="equal">
       <x:formula>$H1452&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1456:I1459">
-    <x:cfRule type="expression" dxfId="2" priority="204" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="205" operator="equal">
       <x:formula>$H1456&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="D1462:I1468">
-    <x:cfRule type="expression" dxfId="2" priority="205" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="206" operator="equal">
       <x:formula>$H1462&lt;&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/tests/Gauges/Subranges_Simple_tMD1.xlsx
+++ b/tests/Gauges/Subranges_Simple_tMD1.xlsx
@@ -11,8 +11,6 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Customers">'Sheet 1'!$A$4:$I$1468</x:definedName>
-    <x:definedName name="Customers_Orders">__temp_buffer!$A$1443:$I$1465</x:definedName>
-    <x:definedName name="Customers_Orders_Items">__temp_buffer!$A$1459:$I$1465</x:definedName>
     <x:definedName name="Customers_tpl">'Sheet 1'!$A$4:$I$11</x:definedName>
     <x:definedName name="Customers_Orders_tpl">'Sheet 1'!$A$6:$I$10</x:definedName>
     <x:definedName name="Customers_Orders_Items_tpl">'Sheet 1'!$A$8:$I$9</x:definedName>
